--- a/src/main/java/com/qa/TestData/test1.xlsx
+++ b/src/main/java/com/qa/TestData/test1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahate\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6CD077-E4CB-4796-8063-C27C2FD66BE5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B732AEC-A53E-4D72-BDE3-54A4A639E6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D6F0ED8-A904-41E5-9F1A-E39A5063DEEF}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>Permanent</t>
   </si>
   <si>
-    <t>100938BR</t>
+    <t>118076BR</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/qa/TestData/test1.xlsx
+++ b/src/main/java/com/qa/TestData/test1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahate\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B732AEC-A53E-4D72-BDE3-54A4A639E6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84411BB-1EF3-404D-9F6E-86C30870EEAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D6F0ED8-A904-41E5-9F1A-E39A5063DEEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1D6F0ED8-A904-41E5-9F1A-E39A5063DEEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Keyword</t>
   </si>
@@ -63,29 +64,91 @@
     <t>Pharmacy</t>
   </si>
   <si>
-    <t>ashford</t>
-  </si>
-  <si>
-    <t>Pharmacist</t>
-  </si>
-  <si>
     <t>Full-time</t>
   </si>
   <si>
     <t>Permanent</t>
   </si>
   <si>
-    <t>118076BR</t>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Confirm email</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Currunt job</t>
+  </si>
+  <si>
+    <t>Preferred role</t>
+  </si>
+  <si>
+    <t>Preffered location</t>
+  </si>
+  <si>
+    <t>Preferred day</t>
+  </si>
+  <si>
+    <t>Preferred time</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>test@mirumagency.com</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Accuracy Checking Technician</t>
+  </si>
+  <si>
+    <t>Merseyside &amp; West Midlands</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>12pm - 4pm</t>
+  </si>
+  <si>
+    <t>waitrose</t>
+  </si>
+  <si>
+    <t>Pharmacy Support Colleagues</t>
+  </si>
+  <si>
+    <t>121117BR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,13 +171,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -475,19 +541,102 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80188351-3072-4166-9E13-EF975E60FED3}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>1234567890</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D6BC2771-2177-4F49-ADC1-C8156208367E}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{15AD41B2-8C25-49ED-9403-A1BEC6AA2500}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/qa/TestData/test1.xlsx
+++ b/src/main/java/com/qa/TestData/test1.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84411BB-1EF3-404D-9F6E-86C30870EEAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15B22E7E-F308-4C76-955E-01F4DD844DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1D6F0ED8-A904-41E5-9F1A-E39A5063DEEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{98DA2340-1E59-4851-A2AB-F0205552B16F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Keyword</t>
   </si>
@@ -43,112 +44,50 @@
     <t>Distance</t>
   </si>
   <si>
+    <t>Businessarea</t>
+  </si>
+  <si>
+    <t>Functionarea</t>
+  </si>
+  <si>
+    <t>Jobtype</t>
+  </si>
+  <si>
+    <t>Contracttype</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>waitrose</t>
+  </si>
+  <si>
     <t>1 mile</t>
   </si>
   <si>
-    <t>Businessarea</t>
-  </si>
-  <si>
-    <t>Functionarea</t>
-  </si>
-  <si>
-    <t>Jobtype</t>
-  </si>
-  <si>
-    <t>Contracttype</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Pharmacy</t>
-  </si>
-  <si>
     <t>Full-time</t>
   </si>
   <si>
     <t>Permanent</t>
   </si>
   <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Confirm email</t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>Currunt job</t>
-  </si>
-  <si>
-    <t>Preferred role</t>
-  </si>
-  <si>
-    <t>Preffered location</t>
-  </si>
-  <si>
-    <t>Preferred day</t>
-  </si>
-  <si>
-    <t>Preferred time</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>test@mirumagency.com</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Accuracy Checking Technician</t>
-  </si>
-  <si>
-    <t>Merseyside &amp; West Midlands</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>12pm - 4pm</t>
-  </si>
-  <si>
-    <t>waitrose</t>
-  </si>
-  <si>
-    <t>Pharmacy Support Colleagues</t>
-  </si>
-  <si>
-    <t>121117BR</t>
+    <t>127570BR</t>
+  </si>
+  <si>
+    <t>Optometrist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,16 +110,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,12 +428,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4924E9C-0A3D-4E9F-95C0-33695DFBA35F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B230453-A1D7-4CE7-B6D7-781C4F8146FE}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -512,131 +446,48 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80188351-3072-4166-9E13-EF975E60FED3}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>1234567890</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D6BC2771-2177-4F49-ADC1-C8156208367E}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{15AD41B2-8C25-49ED-9403-A1BEC6AA2500}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>